--- a/Images for DB/product data for website.xlsx
+++ b/Images for DB/product data for website.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexmus/Desktop/SW Project/sw-project-ca1-OleksandrMustakaiev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexmus/Desktop/SW Project/sw-project-ca1-OleksandrMustakaiev/Images for DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF01F100-2507-2C4B-A7B4-1056B1FF4B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA0EF7D-84C9-C543-A1AB-2F7B679E21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5F50C74F-26DE-A343-B098-F36884326209}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>NAME</t>
   </si>
@@ -187,9 +187,6 @@
     <t>RTX 3070Ti</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Intel Core i9-10900K</t>
   </si>
   <si>
@@ -206,6 +203,72 @@
   </si>
   <si>
     <t>1TB PLUS</t>
+  </si>
+  <si>
+    <t>Plus Esports</t>
+  </si>
+  <si>
+    <t>The most powerful gaming PC for 4K gaming.</t>
+  </si>
+  <si>
+    <t>GIGABYTE X570 GAMING X</t>
+  </si>
+  <si>
+    <t>GAMING</t>
+  </si>
+  <si>
+    <t>Cheap gaming PC</t>
+  </si>
+  <si>
+    <t>GTX 1660Ti</t>
+  </si>
+  <si>
+    <t>MSI B560M-A PRO</t>
+  </si>
+  <si>
+    <t>16GB Kingston Fury Beast DDR4-3200 (2 x 8GB)</t>
+  </si>
+  <si>
+    <t>500GB Kingston NV1</t>
+  </si>
+  <si>
+    <t>MUTE</t>
+  </si>
+  <si>
+    <t>Custom color MUTE Smoky gray</t>
+  </si>
+  <si>
+    <t>GTX 1650XS</t>
+  </si>
+  <si>
+    <t>Intel Core i5-10400F</t>
+  </si>
+  <si>
+    <t>ASRock B560M-ITX/ac</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>Fully white gaming PC</t>
+  </si>
+  <si>
+    <t>RTX 3080 White</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900X</t>
+  </si>
+  <si>
+    <t>ASUS ROG CROSSHAIR VIII DARK HERO</t>
+  </si>
+  <si>
+    <t>2 x 32GB G.Skill Trident Z Royal DDR4-4000 (2 x 16GB)</t>
+  </si>
+  <si>
+    <t>2TB M.2</t>
+  </si>
+  <si>
+    <t>1TB M.2</t>
   </si>
 </sst>
 </file>
@@ -584,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1314312A-AE0E-364E-A3BB-293B4F76481D}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -678,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -707,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -800,7 +863,7 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="4">
         <v>6</v>
@@ -829,7 +892,7 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4">
         <v>7</v>
@@ -849,24 +912,135 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1570</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7430</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
